--- a/municipal/სასტუმროები/სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით/აჭარა ა.რ/ქედა.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით/აჭარა ა.რ/ქედა.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები\3 სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით\აჭარა\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროში დასაქმებულიები ქარ. EN\სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით\აჭარა ა.რ\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D752B-EF2A-4A4B-BA18-04DA1101DABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13590" windowHeight="11805"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ქედი" sheetId="1" r:id="rId1"/>
+    <sheet name="ქედა" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
   <si>
     <t>კაცი</t>
   </si>
@@ -62,14 +63,14 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> მონაცემები კომფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
+      <t xml:space="preserve"> „ ...“ მონაცემები კომფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
@@ -215,31 +216,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -248,32 +249,29 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,37 +548,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="13" customWidth="1"/>
-    <col min="2" max="13" width="11.28515625" style="14" customWidth="1"/>
-    <col min="14" max="22" width="8.85546875" style="5" customWidth="1"/>
+    <col min="2" max="13" width="9.140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
+    <col min="15" max="22" width="8.85546875" style="5" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="18" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:37" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -606,7 +603,7 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" s="18" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -685,6 +682,12 @@
       <c r="M3" s="15">
         <v>2021</v>
       </c>
+      <c r="N3" s="15">
+        <v>2022</v>
+      </c>
+      <c r="O3" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -720,11 +723,17 @@
       <c r="K4" s="7">
         <v>3</v>
       </c>
-      <c r="L4" s="7">
-        <v>0</v>
+      <c r="L4" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
+      </c>
+      <c r="N4" s="7">
+        <v>38</v>
+      </c>
+      <c r="O4" s="7">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,33 +776,39 @@
       <c r="M5" s="9">
         <v>3</v>
       </c>
+      <c r="N5" s="9">
+        <v>27</v>
+      </c>
+      <c r="O5" s="9">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="B6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="J6" s="11">
@@ -802,35 +817,39 @@
       <c r="K6" s="11">
         <v>1</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="11">
         <v>8</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="11">
+        <v>11</v>
+      </c>
+      <c r="O6" s="11">
+        <v>17</v>
+      </c>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
@@ -878,8 +897,7 @@
       <c r="D19" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:M1"/>
+  <mergeCells count="1">
     <mergeCell ref="A7:M7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/municipal/სასტუმროები/სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით/აჭარა ა.რ/ქედა.xlsx
+++ b/municipal/სასტუმროები/სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით/აჭარა ა.რ/ქედა.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმ. მუნიციპ\სასტუმროში დასაქმებულიები ქარ. EN\სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით\აჭარა ა.რ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\სასტუმროები_მუნიციპალიტეტები\3 სასტუმროების და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა სქესის მიხედვით\აჭარა\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4D752B-EF2A-4A4B-BA18-04DA1101DABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8515D7B2-267D-4267-9AB8-5F6D572C25C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="16995" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21990" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ქედა" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="10">
   <si>
     <t>კაცი</t>
   </si>
   <si>
-    <t>ყველა</t>
-  </si>
-  <si>
     <t>ქალი</t>
-  </si>
-  <si>
-    <t>სასტუმროებისა და სასტუმროს ტიპის დაწესებულებებში დასაქმებულთა რაოდენობა ქედის მუნიციპალიტეტში</t>
   </si>
   <si>
     <t>...</t>
@@ -45,10 +39,24 @@
     <t>(კაცი)</t>
   </si>
   <si>
+    <t>*საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები</t>
+  </si>
+  <si>
+    <t>(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+  </si>
+  <si>
+    <t>(დეკლარირებული მონაცემები)</t>
+  </si>
+  <si>
+    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში* დასაქმებულთა რაოდენობა ქედის მუნიციპალიტეტში</t>
+  </si>
+  <si>
+    <t>სულ</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="Sylfaen"/>
@@ -63,7 +71,7 @@
         <rFont val="Sylfaen"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> „ ...“ მონაცემები კომფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
+      <t xml:space="preserve"> "..." - მონაცემები კონფიდენციალურია ან არ არის ხელმისაწვდომი.</t>
     </r>
   </si>
 </sst>
@@ -74,7 +82,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +110,17 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Sylfaen"/>
       <family val="1"/>
@@ -110,12 +129,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -130,37 +143,19 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -197,7 +192,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -206,7 +201,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -216,57 +211,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -551,20 +553,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="13" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
-    <col min="15" max="22" width="8.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11" style="7" customWidth="1"/>
+    <col min="2" max="13" width="8" style="9" customWidth="1"/>
+    <col min="14" max="15" width="8" style="5" customWidth="1"/>
+    <col min="16" max="20" width="8.85546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="9.42578125" style="5" customWidth="1"/>
+    <col min="22" max="22" width="8.85546875" style="5" customWidth="1"/>
     <col min="23" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="16" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -603,24 +607,24 @@
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
     </row>
-    <row r="2" spans="1:37" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -644,261 +648,299 @@
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
     </row>
-    <row r="3" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="15">
+    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14">
         <v>2010</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C4" s="14">
         <v>2011</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="14">
         <v>2012</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E4" s="14">
         <v>2013</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="14">
         <v>2014</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G4" s="14">
         <v>2015</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H4" s="14">
         <v>2016</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I4" s="14">
         <v>2017</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J4" s="14">
         <v>2018</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K4" s="14">
         <v>2019</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L4" s="14">
         <v>2020</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M4" s="14">
         <v>2021</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N4" s="14">
         <v>2022</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O4" s="14">
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="18">
+        <v>11</v>
+      </c>
+      <c r="N5" s="18">
+        <v>38</v>
+      </c>
+      <c r="O5" s="18">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="M6" s="19">
+        <v>3</v>
+      </c>
+      <c r="N6" s="19">
+        <v>27</v>
+      </c>
+      <c r="O6" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="21">
+        <v>8</v>
+      </c>
+      <c r="N7" s="20">
+        <v>11</v>
+      </c>
+      <c r="O7" s="21">
+        <v>17</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="7">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7">
-        <v>3</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="7">
-        <v>11</v>
-      </c>
-      <c r="N4" s="7">
-        <v>38</v>
-      </c>
-      <c r="O4" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J5" s="9">
-        <v>11</v>
-      </c>
-      <c r="K5" s="9">
-        <v>2</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="M5" s="9">
-        <v>3</v>
-      </c>
-      <c r="N5" s="9">
-        <v>27</v>
-      </c>
-      <c r="O5" s="9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="11">
-        <v>2</v>
-      </c>
-      <c r="K6" s="11">
-        <v>1</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="M6" s="11">
-        <v>8</v>
-      </c>
-      <c r="N6" s="11">
-        <v>11</v>
-      </c>
-      <c r="O6" s="11">
-        <v>17</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-    </row>
-    <row r="7" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="A10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:M7"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
